--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>71.12908646644733</v>
+        <v>55.04475107194456</v>
       </c>
       <c r="R2">
-        <v>640.161778198026</v>
+        <v>495.402759647501</v>
       </c>
       <c r="S2">
-        <v>0.02928966106120285</v>
+        <v>0.03038009755198353</v>
       </c>
       <c r="T2">
-        <v>0.02928966106120284</v>
+        <v>0.03038009755198353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>81.5762859717089</v>
+        <v>91.80748157553222</v>
       </c>
       <c r="R3">
-        <v>734.1865737453801</v>
+        <v>826.2673341797899</v>
       </c>
       <c r="S3">
-        <v>0.0335916273558525</v>
+        <v>0.05067004922269819</v>
       </c>
       <c r="T3">
-        <v>0.03359162735585249</v>
+        <v>0.05067004922269819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>9.062451869694222</v>
+        <v>9.940562849598557</v>
       </c>
       <c r="R4">
-        <v>81.562066827248</v>
+        <v>89.465065646387</v>
       </c>
       <c r="S4">
-        <v>0.003731752463487887</v>
+        <v>0.00548635906623892</v>
       </c>
       <c r="T4">
-        <v>0.003731752463487887</v>
+        <v>0.00548635906623892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>5.477796766107555</v>
+        <v>2.020070944216889</v>
       </c>
       <c r="R5">
-        <v>49.300170894968</v>
+        <v>18.180638497952</v>
       </c>
       <c r="S5">
-        <v>0.002255656843239884</v>
+        <v>0.001114910162224639</v>
       </c>
       <c r="T5">
-        <v>0.002255656843239883</v>
+        <v>0.001114910162224639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>460.2928106070677</v>
+        <v>316.5109411570915</v>
       </c>
       <c r="R6">
-        <v>4142.63529546361</v>
+        <v>2848.598470413823</v>
       </c>
       <c r="S6">
-        <v>0.189540187866029</v>
+        <v>0.1746875602372103</v>
       </c>
       <c r="T6">
-        <v>0.189540187866029</v>
+        <v>0.1746875602372103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>527.8990609069079</v>
+        <v>527.8990609069078</v>
       </c>
       <c r="R7">
         <v>4751.091548162171</v>
       </c>
       <c r="S7">
-        <v>0.2173792092182185</v>
+        <v>0.2913561176249279</v>
       </c>
       <c r="T7">
-        <v>0.2173792092182185</v>
+        <v>0.2913561176249279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>58.64522728069245</v>
+        <v>57.15889057333345</v>
       </c>
       <c r="R8">
-        <v>527.8070455262321</v>
+        <v>514.4300151600011</v>
       </c>
       <c r="S8">
-        <v>0.0241490354402197</v>
+        <v>0.03154692568799871</v>
       </c>
       <c r="T8">
-        <v>0.0241490354402197</v>
+        <v>0.03154692568799871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>35.44809296257911</v>
+        <v>11.61554087005511</v>
       </c>
       <c r="R9">
-        <v>319.032836663212</v>
+        <v>104.539867830496</v>
       </c>
       <c r="S9">
-        <v>0.01459687843214064</v>
+        <v>0.006410806804995873</v>
       </c>
       <c r="T9">
-        <v>0.01459687843214064</v>
+        <v>0.006410806804995872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>170.1305247086503</v>
+        <v>96.67044849666144</v>
       </c>
       <c r="R10">
-        <v>1531.174722377853</v>
+        <v>870.034036469953</v>
       </c>
       <c r="S10">
-        <v>0.0700566484462239</v>
+        <v>0.05335400012771507</v>
       </c>
       <c r="T10">
-        <v>0.0700566484462239</v>
+        <v>0.05335400012771508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>195.1187204224322</v>
+        <v>161.2337279472077</v>
       </c>
       <c r="R11">
-        <v>1756.06848380189</v>
+        <v>1451.10355152487</v>
       </c>
       <c r="S11">
-        <v>0.08034633188441793</v>
+        <v>0.08898752902531935</v>
       </c>
       <c r="T11">
-        <v>0.08034633188441792</v>
+        <v>0.08898752902531937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>21.67607891977155</v>
+        <v>17.45777118192344</v>
       </c>
       <c r="R12">
-        <v>195.084710277944</v>
+        <v>157.119940637311</v>
       </c>
       <c r="S12">
-        <v>0.00892581412521694</v>
+        <v>0.009635229176599215</v>
       </c>
       <c r="T12">
-        <v>0.008925814125216938</v>
+        <v>0.009635229176599217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>13.10210048184489</v>
+        <v>3.547680030695111</v>
       </c>
       <c r="R13">
-        <v>117.918904336604</v>
+        <v>31.92912027625599</v>
       </c>
       <c r="S13">
-        <v>0.005395206115631511</v>
+        <v>0.00195802257829947</v>
       </c>
       <c r="T13">
-        <v>0.00539520611563151</v>
+        <v>0.00195802257829947</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>331.269292833815</v>
+        <v>159.7700010590437</v>
       </c>
       <c r="R14">
-        <v>2981.423635504335</v>
+        <v>1437.930009531393</v>
       </c>
       <c r="S14">
-        <v>0.1364106554589835</v>
+        <v>0.08817967423833402</v>
       </c>
       <c r="T14">
-        <v>0.1364106554589835</v>
+        <v>0.08817967423833402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>379.9250054842834</v>
+        <v>266.4755702024966</v>
       </c>
       <c r="R15">
-        <v>3419.32504935855</v>
+        <v>2398.28013182247</v>
       </c>
       <c r="S15">
-        <v>0.156446190892097</v>
+        <v>0.1470722214256403</v>
       </c>
       <c r="T15">
-        <v>0.156446190892097</v>
+        <v>0.1470722214256403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>42.20653141145333</v>
+        <v>28.85295520606567</v>
       </c>
       <c r="R16">
-        <v>379.85878270308</v>
+        <v>259.676596854591</v>
       </c>
       <c r="S16">
-        <v>0.01737988017312187</v>
+        <v>0.01592441743768831</v>
       </c>
       <c r="T16">
-        <v>0.01737988017312187</v>
+        <v>0.01592441743768831</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>25.51172735575333</v>
+        <v>5.863351738570666</v>
       </c>
       <c r="R17">
-        <v>229.60554620178</v>
+        <v>52.77016564713599</v>
       </c>
       <c r="S17">
-        <v>0.01050526422391649</v>
+        <v>0.003236079632126064</v>
       </c>
       <c r="T17">
-        <v>0.01050526422391649</v>
+        <v>0.003236079632126063</v>
       </c>
     </row>
   </sheetData>
